--- a/01日本語/log/4种基本句型.xlsx
+++ b/01日本語/log/4种基本句型.xlsx
@@ -380,56 +380,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,7 +714,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -729,262 +729,262 @@
   <sheetData>
     <row r="1" spans="2:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="16" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="17" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="16" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
